--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2878.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2878.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203863299827097</v>
+        <v>2.409494638442993</v>
       </c>
       <c r="B1">
-        <v>2.014586607946661</v>
+        <v>2.75522518157959</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.920884609222412</v>
       </c>
       <c r="D1">
-        <v>2.028642702783269</v>
+        <v>3.556612253189087</v>
       </c>
       <c r="E1">
-        <v>1.204191795676906</v>
+        <v>0.8769075870513916</v>
       </c>
     </row>
   </sheetData>
